--- a/系统/公安厅/2017年10月18日曾升琴问题/2017年10月18日曾升琴问题修复情况.xlsx
+++ b/系统/公安厅/2017年10月18日曾升琴问题/2017年10月18日曾升琴问题修复情况.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/系统/公安厅/2017年10月18日曾升琴问题/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23260" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -326,23 +339,65 @@
     <t>吴明伟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>待确认，java新版也不会考虑</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin'ban</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu'hui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kao'lv</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾升琴确认</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'sheng'q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版需求</t>
+    <rPh sb="0" eb="1">
+      <t>xin'ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,14 +405,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,7 +426,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -379,7 +434,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,20 +442,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -414,10 +469,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="8">
@@ -471,16 +530,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,9 +567,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -565,9 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -579,6 +632,17 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -639,12 +703,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -671,14 +735,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -705,6 +770,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -880,752 +946,760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="9">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="42" customHeight="1">
-      <c r="A3" s="13">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
         <v>51</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A4" s="9">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="15" t="s">
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="67.5">
-      <c r="A7" s="9">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="12" t="s">
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="67.5">
-      <c r="A8" s="35">
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="35">
         <v>1</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="121.5">
-      <c r="A9" s="17">
+      <c r="G8" s="36"/>
+      <c r="H8" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="40.5">
-      <c r="A10" s="17">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="18">
         <v>2</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="54">
-      <c r="A11" s="19">
+      <c r="F10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="18">
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="40.5">
-      <c r="A12" s="19">
+      <c r="F11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="18">
         <v>3</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="40.5">
-      <c r="A13" s="19">
+      <c r="F12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="18">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="40.5">
-      <c r="A14" s="19">
+      <c r="F13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="18">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="27">
-      <c r="A15" s="17">
+      <c r="F14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="C15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="18">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="21">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="27">
-      <c r="A17" s="9">
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="54">
-      <c r="A18" s="13">
+      <c r="F17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8">
         <v>3</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="40.5">
-      <c r="A19" s="30">
+      <c r="F18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="81">
-      <c r="A20" s="22">
-        <v>19</v>
-      </c>
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>3</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
+      <c r="F20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="67.5">
-      <c r="A21" s="30">
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>1</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27">
-      <c r="A22" s="28">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>1</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29" t="s">
+      <c r="F22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="27">
-      <c r="A23" s="9">
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="8">
         <v>3</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="27">
-      <c r="A24" s="9">
+      <c r="F23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="8">
         <v>3</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="27">
-      <c r="A25" s="13">
+      <c r="F24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="8">
         <v>2</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" ht="27">
-      <c r="A26" s="9">
+      <c r="F25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="8">
         <v>2</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="27">
-      <c r="A27" s="9">
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="27">
-      <c r="A28" s="13">
+      <c r="F27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="8">
         <v>3</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="27">
-      <c r="A29" s="9">
+      <c r="F28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="C29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="8">
         <v>3</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="21">
+      <c r="F29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>1</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="1:8" ht="94.5">
-      <c r="A31" s="9">
+      <c r="F30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="C31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="8">
         <v>3</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="6" t="s">
+      <c r="F31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="C33" s="33" t="s">
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="6"/>
-      <c r="C34" s="33" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1641,12 +1715,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1654,12 +1728,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
